--- a/BEFORE_Indonesian Self-Efficacy UY.xlsx
+++ b/BEFORE_Indonesian Self-Efficacy UY.xlsx
@@ -1,33 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/OOP-experiment-data-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nawras\OneDrive - Hiroshima University\Doctoral Course 2020\Experiments\OOP_Maya\last experiment files\OOP-experiment-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6EFD672E-401E-4D85-97F6-D218495B0338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5345DF-E0C4-4E64-9129-0F3E04948627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1305" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-1305" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW_Indonesian Self-Efficacy" sheetId="1" r:id="rId1"/>
     <sheet name="BEFORE_Indonesian Self-Efficacy" sheetId="4" r:id="rId2"/>
-    <sheet name="Second submission" sheetId="5" r:id="rId3"/>
+    <sheet name="stid to uid" sheetId="6" r:id="rId3"/>
+    <sheet name="Second submission" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BEFORE_Indonesian Self-Efficacy'!$A$1:$K$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RAW_Indonesian Self-Efficacy'!$A$1:$K$175</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Second submission'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Second submission'!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="296">
   <si>
     <t>Timestamp</t>
   </si>
@@ -897,14 +935,32 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>stid</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>prelimin_uid_list</t>
+  </si>
+  <si>
+    <t>concate</t>
+  </si>
+  <si>
+    <t>uname_based_on_summarization</t>
+  </si>
+  <si>
+    <t>self-efficacy responders who participated in the delay test but have no data in prepost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1383,10 +1439,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1432,7 +1489,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1474,6 +1551,1030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PBO.21.22.1 (Presensi 7AB) Reme"/>
+      <sheetName val="RAW"/>
+      <sheetName val="timeinsecond"/>
+      <sheetName val="user_userid in PrePostTest"/>
+      <sheetName val="delay score"/>
+      <sheetName val="summarization"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2">
+            <v>1402020069</v>
+          </cell>
+          <cell r="L2">
+            <v>447</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1402020066</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1402020035</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1402019043</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1402020117</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1402020029</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1402017084</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1402019099</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1402020031</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1402020079</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1402017148</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1402020072</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1402020041</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1402020016</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1402017036</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1402020083</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1402020027</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1402017065</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1402018185</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>1402020043</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>1402020057</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1402019036</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1402019048</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1402020034</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1402017066</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1402020101</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>1402020033</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>1402020090</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>1402020064</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1402020070</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>1402020059</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>1402019040</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1402017049</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>1402020133</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>1402020102</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>1402020114</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>1402020039</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>1402020076</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>1402020023</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>1402018119</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>1402019045</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>1402020116</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>1402020080</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>1402020052</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>1402020008</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>1402020067</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>1402016052</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>1402020135</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>1402020112</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>1402020081</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>1402020007</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>1402020103</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>1402018187</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>1402020087</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>1402018229</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>1402020063</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>1402020137</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>1402020019</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1402020098</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>1402020053</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>1402020107</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>1402020074</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>1402020062</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>1402020065</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>1402020095</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>1402017019</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>1402020097</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1402020134</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>1402020032</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>1402020030</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>1402019074</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>1402020054</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>1402020073</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>1402020005</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>1402020061</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>1402020058</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>1402020021</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>1402020115</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>1402020025</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>1402019086</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>1402019028</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>1402018076</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>1402020113</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>1402019046</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>1402020128</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>1402020089</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>1402020124</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>1402019005</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>1402020088</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>1402019038</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>1402019071</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>1402019069</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>1402019024</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>1402019009</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>1402020132</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>1402020111</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>1402019001</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>1402020075</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>1402018198</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>1402019008</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>1402020086</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>1402020138</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>1402018221</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>1402019077</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>1402020092</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>1402019021</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>1402019098</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>1402020056</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>stu58</v>
+          </cell>
+          <cell r="C2">
+            <v>1402020057</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>stu59</v>
+          </cell>
+          <cell r="C3">
+            <v>1402020080</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>stu60</v>
+          </cell>
+          <cell r="C4">
+            <v>1402020032</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>stu61</v>
+          </cell>
+          <cell r="C5">
+            <v>1402020092</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>stu62</v>
+          </cell>
+          <cell r="C6">
+            <v>1402020116</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>stu63</v>
+          </cell>
+          <cell r="C7">
+            <v>1402020062</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>stu64</v>
+          </cell>
+          <cell r="C8">
+            <v>1402020083</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>stu65</v>
+          </cell>
+          <cell r="C9">
+            <v>1402020008</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>stu66</v>
+          </cell>
+          <cell r="C10">
+            <v>1402019045</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>stu67</v>
+          </cell>
+          <cell r="C11">
+            <v>1402017084</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>stu68</v>
+          </cell>
+          <cell r="C12">
+            <v>1402020133</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>stu69</v>
+          </cell>
+          <cell r="C13">
+            <v>1402020059</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>stu70</v>
+          </cell>
+          <cell r="C14">
+            <v>1402020112</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>stu71</v>
+          </cell>
+          <cell r="C15">
+            <v>1402020061</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>stu72</v>
+          </cell>
+          <cell r="C16">
+            <v>1402020103</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>stu73</v>
+          </cell>
+          <cell r="C17">
+            <v>1402019069</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>stu74</v>
+          </cell>
+          <cell r="C18">
+            <v>1402020043</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>stu75</v>
+          </cell>
+          <cell r="C19">
+            <v>1402019086</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>stu76</v>
+          </cell>
+          <cell r="C20">
+            <v>1402020102</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>stu77</v>
+          </cell>
+          <cell r="C21">
+            <v>1402020073</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>stu78</v>
+          </cell>
+          <cell r="C22">
+            <v>1402020063</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>stu79</v>
+          </cell>
+          <cell r="C23">
+            <v>1402020023</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>stu80</v>
+          </cell>
+          <cell r="C24">
+            <v>1402020005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>stu81</v>
+          </cell>
+          <cell r="C25">
+            <v>1402019040</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>stu82</v>
+          </cell>
+          <cell r="C26">
+            <v>1402020098</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>stu83</v>
+          </cell>
+          <cell r="C27">
+            <v>1402019036</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>stu84</v>
+          </cell>
+          <cell r="C28">
+            <v>1402019071</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>stu85</v>
+          </cell>
+          <cell r="C29">
+            <v>1402020132</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>stu86</v>
+          </cell>
+          <cell r="C30">
+            <v>1402020137</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>stu87</v>
+          </cell>
+          <cell r="C31">
+            <v>1402020135</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>stu88</v>
+          </cell>
+          <cell r="C32">
+            <v>1402019009</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>stu89</v>
+          </cell>
+          <cell r="C33">
+            <v>1402020035</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>stu90</v>
+          </cell>
+          <cell r="C34">
+            <v>1402019028</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>stu91</v>
+          </cell>
+          <cell r="C35">
+            <v>1402020026</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>stu92</v>
+          </cell>
+          <cell r="C36">
+            <v>1402019001</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>stu93</v>
+          </cell>
+          <cell r="C37">
+            <v>1402020021</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>stu94</v>
+          </cell>
+          <cell r="C38">
+            <v>1402018119</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>stu95</v>
+          </cell>
+          <cell r="C39">
+            <v>1402020016</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>stu96</v>
+          </cell>
+          <cell r="C40">
+            <v>1402020079</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>stu97</v>
+          </cell>
+          <cell r="C41">
+            <v>1402018023</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>stu98</v>
+          </cell>
+          <cell r="C42">
+            <v>1402020031</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>stu99</v>
+          </cell>
+          <cell r="C43">
+            <v>1402020034</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>stu100</v>
+          </cell>
+          <cell r="C44">
+            <v>1402020095</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>stu101</v>
+          </cell>
+          <cell r="C45">
+            <v>1402020134</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>stu102</v>
+          </cell>
+          <cell r="C46">
+            <v>1402017148</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>stu103</v>
+          </cell>
+          <cell r="C47">
+            <v>1402020138</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>stu104</v>
+          </cell>
+          <cell r="C48">
+            <v>1402017019</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>stu105</v>
+          </cell>
+          <cell r="C49">
+            <v>1402019048</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>stu106</v>
+          </cell>
+          <cell r="C50">
+            <v>1402019008</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>stu107</v>
+          </cell>
+          <cell r="C51">
+            <v>1402018076</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>stu108</v>
+          </cell>
+          <cell r="C52">
+            <v>1402018163</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>stu109</v>
+          </cell>
+          <cell r="C53">
+            <v>1402018229</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>stu110</v>
+          </cell>
+          <cell r="C54">
+            <v>1402018221</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>stu111</v>
+          </cell>
+          <cell r="C55">
+            <v>1402018173</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>stu112</v>
+          </cell>
+          <cell r="C56">
+            <v>1402018185</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>stu113</v>
+          </cell>
+          <cell r="C57">
+            <v>1402019043</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>stu114</v>
+          </cell>
+          <cell r="C58">
+            <v>1402020075</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1772,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O175"/>
   <sheetViews>
@@ -8838,7 +9939,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K175">
+  <autoFilter ref="A1:K175" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K175">
       <sortCondition ref="C1:C175"/>
     </sortState>
@@ -8847,18 +9948,20 @@
     <sortCondition ref="A2:A175"/>
   </sortState>
   <conditionalFormatting sqref="C2:C175 O2:O76">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8942,7 +10045,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(D2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">AVERAGE(D2:K2)</f>
         <v>4.625</v>
       </c>
     </row>
@@ -8981,7 +10084,7 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <f>AVERAGE(D3:K3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -9020,7 +10123,7 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(D4:K4)</f>
+        <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
     </row>
@@ -9059,7 +10162,7 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(D5:K5)</f>
+        <f t="shared" si="0"/>
         <v>6.375</v>
       </c>
     </row>
@@ -9098,7 +10201,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(D6:K6)</f>
+        <f t="shared" si="0"/>
         <v>6.125</v>
       </c>
     </row>
@@ -9137,7 +10240,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(D7:K7)</f>
+        <f t="shared" si="0"/>
         <v>4.875</v>
       </c>
     </row>
@@ -9176,7 +10279,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <f>AVERAGE(D8:K8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -9215,7 +10318,7 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <f>AVERAGE(D9:K9)</f>
+        <f t="shared" si="0"/>
         <v>6.125</v>
       </c>
     </row>
@@ -9254,7 +10357,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(D10:K10)</f>
+        <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
     </row>
@@ -9293,7 +10396,7 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(D11:K11)</f>
+        <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
     </row>
@@ -9332,7 +10435,7 @@
         <v>4</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(D12:K12)</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
     </row>
@@ -9371,7 +10474,7 @@
         <v>4</v>
       </c>
       <c r="L13">
-        <f>AVERAGE(D13:K13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -9410,7 +10513,7 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <f>AVERAGE(D14:K14)</f>
+        <f t="shared" si="0"/>
         <v>5.875</v>
       </c>
     </row>
@@ -9449,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <f>AVERAGE(D15:K15)</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
@@ -9488,7 +10591,7 @@
         <v>6</v>
       </c>
       <c r="L16">
-        <f>AVERAGE(D16:K16)</f>
+        <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
     </row>
@@ -9527,7 +10630,7 @@
         <v>6</v>
       </c>
       <c r="L17">
-        <f>AVERAGE(D17:K17)</f>
+        <f t="shared" si="0"/>
         <v>4.625</v>
       </c>
     </row>
@@ -9566,7 +10669,7 @@
         <v>6</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(D18:K18)</f>
+        <f t="shared" si="0"/>
         <v>5.875</v>
       </c>
     </row>
@@ -9605,7 +10708,7 @@
         <v>3</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(D19:K19)</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
     </row>
@@ -9644,7 +10747,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <f>AVERAGE(D20:K20)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -9683,7 +10786,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <f>AVERAGE(D21:K21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -9722,7 +10825,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <f>AVERAGE(D22:K22)</f>
+        <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
     </row>
@@ -9761,7 +10864,7 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(D23:K23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -9800,7 +10903,7 @@
         <v>6</v>
       </c>
       <c r="L24">
-        <f>AVERAGE(D24:K24)</f>
+        <f t="shared" si="0"/>
         <v>5.375</v>
       </c>
     </row>
@@ -9839,7 +10942,7 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <f>AVERAGE(D25:K25)</f>
+        <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
     </row>
@@ -9878,7 +10981,7 @@
         <v>7</v>
       </c>
       <c r="L26">
-        <f>AVERAGE(D26:K26)</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
     </row>
@@ -9917,7 +11020,7 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <f>AVERAGE(D27:K27)</f>
+        <f t="shared" si="0"/>
         <v>2.875</v>
       </c>
     </row>
@@ -9956,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <f>AVERAGE(D28:K28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -9995,7 +11098,7 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(D29:K29)</f>
+        <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
     </row>
@@ -10034,7 +11137,7 @@
         <v>5</v>
       </c>
       <c r="L30">
-        <f>AVERAGE(D30:K30)</f>
+        <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
     </row>
@@ -10073,7 +11176,7 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <f>AVERAGE(D31:K31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -10112,7 +11215,7 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <f>AVERAGE(D32:K32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -10151,7 +11254,7 @@
         <v>7</v>
       </c>
       <c r="L33">
-        <f>AVERAGE(D33:K33)</f>
+        <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
     </row>
@@ -10190,7 +11293,7 @@
         <v>5</v>
       </c>
       <c r="L34">
-        <f>AVERAGE(D34:K34)</f>
+        <f t="shared" ref="L34:L65" si="1">AVERAGE(D34:K34)</f>
         <v>5.875</v>
       </c>
     </row>
@@ -10229,7 +11332,7 @@
         <v>5</v>
       </c>
       <c r="L35">
-        <f>AVERAGE(D35:K35)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10268,7 +11371,7 @@
         <v>4</v>
       </c>
       <c r="L36">
-        <f>AVERAGE(D36:K36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -10307,7 +11410,7 @@
         <v>6</v>
       </c>
       <c r="L37">
-        <f>AVERAGE(D37:K37)</f>
+        <f t="shared" si="1"/>
         <v>5.375</v>
       </c>
     </row>
@@ -10346,7 +11449,7 @@
         <v>6</v>
       </c>
       <c r="L38">
-        <f>AVERAGE(D38:K38)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -10385,7 +11488,7 @@
         <v>5</v>
       </c>
       <c r="L39">
-        <f>AVERAGE(D39:K39)</f>
+        <f t="shared" si="1"/>
         <v>4.125</v>
       </c>
     </row>
@@ -10424,7 +11527,7 @@
         <v>5</v>
       </c>
       <c r="L40">
-        <f>AVERAGE(D40:K40)</f>
+        <f t="shared" si="1"/>
         <v>4.875</v>
       </c>
     </row>
@@ -10463,7 +11566,7 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <f>AVERAGE(D41:K41)</f>
+        <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
     </row>
@@ -10502,7 +11605,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <f>AVERAGE(D42:K42)</f>
+        <f t="shared" si="1"/>
         <v>3.625</v>
       </c>
     </row>
@@ -10541,7 +11644,7 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <f>AVERAGE(D43:K43)</f>
+        <f t="shared" si="1"/>
         <v>4.125</v>
       </c>
     </row>
@@ -10580,7 +11683,7 @@
         <v>4</v>
       </c>
       <c r="L44">
-        <f>AVERAGE(D44:K44)</f>
+        <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
     </row>
@@ -10619,7 +11722,7 @@
         <v>4</v>
       </c>
       <c r="L45">
-        <f>AVERAGE(D45:K45)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -10658,7 +11761,7 @@
         <v>4</v>
       </c>
       <c r="L46">
-        <f>AVERAGE(D46:K46)</f>
+        <f t="shared" si="1"/>
         <v>3.875</v>
       </c>
     </row>
@@ -10697,7 +11800,7 @@
         <v>7</v>
       </c>
       <c r="L47">
-        <f>AVERAGE(D47:K47)</f>
+        <f t="shared" si="1"/>
         <v>5.375</v>
       </c>
     </row>
@@ -10736,7 +11839,7 @@
         <v>5</v>
       </c>
       <c r="L48">
-        <f>AVERAGE(D48:K48)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
     </row>
@@ -10775,7 +11878,7 @@
         <v>4</v>
       </c>
       <c r="L49">
-        <f>AVERAGE(D49:K49)</f>
+        <f t="shared" si="1"/>
         <v>3.625</v>
       </c>
     </row>
@@ -10814,7 +11917,7 @@
         <v>6</v>
       </c>
       <c r="L50">
-        <f>AVERAGE(D50:K50)</f>
+        <f t="shared" si="1"/>
         <v>4.625</v>
       </c>
     </row>
@@ -10853,7 +11956,7 @@
         <v>6</v>
       </c>
       <c r="L51">
-        <f>AVERAGE(D51:K51)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
@@ -10892,7 +11995,7 @@
         <v>5</v>
       </c>
       <c r="L52">
-        <f>AVERAGE(D52:K52)</f>
+        <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
     </row>
@@ -10931,7 +12034,7 @@
         <v>5</v>
       </c>
       <c r="L53">
-        <f>AVERAGE(D53:K53)</f>
+        <f t="shared" si="1"/>
         <v>4.875</v>
       </c>
     </row>
@@ -10970,7 +12073,7 @@
         <v>5</v>
       </c>
       <c r="L54">
-        <f>AVERAGE(D54:K54)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11009,7 +12112,7 @@
         <v>4</v>
       </c>
       <c r="L55">
-        <f>AVERAGE(D55:K55)</f>
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
     </row>
@@ -11048,7 +12151,7 @@
         <v>4</v>
       </c>
       <c r="L56">
-        <f>AVERAGE(D56:K56)</f>
+        <f t="shared" si="1"/>
         <v>3.625</v>
       </c>
     </row>
@@ -11087,7 +12190,7 @@
         <v>5</v>
       </c>
       <c r="L57">
-        <f>AVERAGE(D57:K57)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11126,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="L58">
-        <f>AVERAGE(D58:K58)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -11165,7 +12268,7 @@
         <v>4</v>
       </c>
       <c r="L59">
-        <f>AVERAGE(D59:K59)</f>
+        <f t="shared" si="1"/>
         <v>3.875</v>
       </c>
     </row>
@@ -11204,7 +12307,7 @@
         <v>5</v>
       </c>
       <c r="L60">
-        <f>AVERAGE(D60:K60)</f>
+        <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
     </row>
@@ -11243,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="L61">
-        <f>AVERAGE(D61:K61)</f>
+        <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
     </row>
@@ -11282,7 +12385,7 @@
         <v>6</v>
       </c>
       <c r="L62">
-        <f>AVERAGE(D62:K62)</f>
+        <f t="shared" si="1"/>
         <v>5.625</v>
       </c>
     </row>
@@ -11321,7 +12424,7 @@
         <v>4</v>
       </c>
       <c r="L63">
-        <f>AVERAGE(D63:K63)</f>
+        <f t="shared" si="1"/>
         <v>3.625</v>
       </c>
     </row>
@@ -11360,7 +12463,7 @@
         <v>4</v>
       </c>
       <c r="L64">
-        <f>AVERAGE(D64:K64)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11399,7 +12502,7 @@
         <v>7</v>
       </c>
       <c r="L65">
-        <f>AVERAGE(D65:K65)</f>
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
     </row>
@@ -11438,7 +12541,7 @@
         <v>4</v>
       </c>
       <c r="L66">
-        <f>AVERAGE(D66:K66)</f>
+        <f t="shared" ref="L66:L80" si="2">AVERAGE(D66:K66)</f>
         <v>4</v>
       </c>
     </row>
@@ -11477,7 +12580,7 @@
         <v>4</v>
       </c>
       <c r="L67">
-        <f>AVERAGE(D67:K67)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -11516,7 +12619,7 @@
         <v>4</v>
       </c>
       <c r="L68">
-        <f>AVERAGE(D68:K68)</f>
+        <f t="shared" si="2"/>
         <v>3.625</v>
       </c>
     </row>
@@ -11555,7 +12658,7 @@
         <v>7</v>
       </c>
       <c r="L69">
-        <f>AVERAGE(D69:K69)</f>
+        <f t="shared" si="2"/>
         <v>5.625</v>
       </c>
     </row>
@@ -11594,7 +12697,7 @@
         <v>4</v>
       </c>
       <c r="L70">
-        <f>AVERAGE(D70:K70)</f>
+        <f t="shared" si="2"/>
         <v>3.875</v>
       </c>
     </row>
@@ -11633,7 +12736,7 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <f>AVERAGE(D71:K71)</f>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
     </row>
@@ -11672,7 +12775,7 @@
         <v>5</v>
       </c>
       <c r="L72">
-        <f>AVERAGE(D72:K72)</f>
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
@@ -11711,7 +12814,7 @@
         <v>4</v>
       </c>
       <c r="L73">
-        <f>AVERAGE(D73:K73)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -11750,7 +12853,7 @@
         <v>5</v>
       </c>
       <c r="L74">
-        <f>AVERAGE(D74:K74)</f>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
     </row>
@@ -11789,7 +12892,7 @@
         <v>5</v>
       </c>
       <c r="L75">
-        <f>AVERAGE(D75:K75)</f>
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
     </row>
@@ -11828,7 +12931,7 @@
         <v>5</v>
       </c>
       <c r="L76">
-        <f>AVERAGE(D76:K76)</f>
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
@@ -11867,7 +12970,7 @@
         <v>5</v>
       </c>
       <c r="L77">
-        <f>AVERAGE(D77:K77)</f>
+        <f t="shared" si="2"/>
         <v>5.375</v>
       </c>
     </row>
@@ -11906,7 +13009,7 @@
         <v>3</v>
       </c>
       <c r="L78">
-        <f>AVERAGE(D78:K78)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11945,7 +13048,7 @@
         <v>5</v>
       </c>
       <c r="L79">
-        <f>AVERAGE(D79:K79)</f>
+        <f t="shared" si="2"/>
         <v>3.875</v>
       </c>
     </row>
@@ -11984,12 +13087,12 @@
         <v>5</v>
       </c>
       <c r="L80">
-        <f>AVERAGE(D80:K80)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K145">
+  <autoFilter ref="A1:K145" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K145">
       <sortCondition ref="A1:A145"/>
     </sortState>
@@ -11999,14 +13102,1328 @@
     <sortCondition ref="A2:A145"/>
   </sortState>
   <conditionalFormatting sqref="C2:C80">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215E76DA-82EE-4988-8DA6-FA844AE27FD6}">
+  <dimension ref="A1:G80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C2</f>
+        <v>1402019098</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:B80">_xlfn.XLOOKUP(A2:A80,[1]timeinsecond!$A$2:$A$109,_xlfn.ANCHORARRAY([1]timeinsecond!L2),"",0,1)</f>
+        <v>471</v>
+      </c>
+      <c r="C2">
+        <f>IF(B2="",A2,B2)</f>
+        <v>471</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:D80">_xlfn.XLOOKUP(C2:C80,[1]summarization!$C$2:$C$58,[1]summarization!$A$2:$A$58,"",0,1)</f>
+        <v/>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C3</f>
+        <v>1402020058</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">IF(B3="",A3,B3)</f>
+        <v>1402020058</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C4</f>
+        <v>1402019069</v>
+      </c>
+      <c r="B4">
+        <v>577</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C5</f>
+        <v>1402020057</v>
+      </c>
+      <c r="B5">
+        <v>562</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>562</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C6</f>
+        <v>1402020069</v>
+      </c>
+      <c r="B6">
+        <v>447</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C7</f>
+        <v>1402019005</v>
+      </c>
+      <c r="B7">
+        <v>467</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>467</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C8</f>
+        <v>1402020097</v>
+      </c>
+      <c r="B8">
+        <v>449</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C9</f>
+        <v>1402020112</v>
+      </c>
+      <c r="B9">
+        <v>574</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C10</f>
+        <v>1402020092</v>
+      </c>
+      <c r="B10">
+        <v>565</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>565</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C11</f>
+        <v>1402020075</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1402020075</v>
+      </c>
+      <c r="D11" t="str">
+        <v>stu114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C12</f>
+        <v>1402020031</v>
+      </c>
+      <c r="B12">
+        <v>602</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C13</f>
+        <v>1402020053</v>
+      </c>
+      <c r="B13">
+        <v>494</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>494</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C14</f>
+        <v>1402019038</v>
+      </c>
+      <c r="B14">
+        <v>479</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C15</f>
+        <v>1402020043</v>
+      </c>
+      <c r="B15">
+        <v>578</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C16</f>
+        <v>1402020111</v>
+      </c>
+      <c r="B16">
+        <v>476</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C17</f>
+        <v>1402019086</v>
+      </c>
+      <c r="B17">
+        <v>579</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>579</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C18</f>
+        <v>1402020079</v>
+      </c>
+      <c r="B18">
+        <v>600</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C19</f>
+        <v>1402019001</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1402019001</v>
+      </c>
+      <c r="D19" t="str">
+        <v>stu92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C20</f>
+        <v>1402017066</v>
+      </c>
+      <c r="B20">
+        <v>491</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C21</f>
+        <v>1402018187</v>
+      </c>
+      <c r="B21">
+        <v>502</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C22</f>
+        <v>1402020138</v>
+      </c>
+      <c r="B22">
+        <v>607</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>607</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C23</f>
+        <v>1402020052</v>
+      </c>
+      <c r="B23">
+        <v>472</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C24</f>
+        <v>1402017123</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1402017123</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C25</f>
+        <v>1402020113</v>
+      </c>
+      <c r="B25">
+        <v>456</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C26</f>
+        <v>1402020032</v>
+      </c>
+      <c r="B26">
+        <v>564</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C27</f>
+        <v>1402020090</v>
+      </c>
+      <c r="B27">
+        <v>452</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C28</f>
+        <v>1402019043</v>
+      </c>
+      <c r="B28">
+        <v>617</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C29</f>
+        <v>1402019077</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1402019077</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C30</f>
+        <v>1402020072</v>
+      </c>
+      <c r="B30">
+        <v>490</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C31</f>
+        <v>1402020035</v>
+      </c>
+      <c r="B31">
+        <v>593</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C32</f>
+        <v>1402020039</v>
+      </c>
+      <c r="B32">
+        <v>470</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C33</f>
+        <v>1402020007</v>
+      </c>
+      <c r="B33">
+        <v>478</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C34</f>
+        <v>1402019046</v>
+      </c>
+      <c r="B34">
+        <v>486</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C35</f>
+        <v>1402019009</v>
+      </c>
+      <c r="B35">
+        <v>592</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>592</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C36</f>
+        <v>1402020016</v>
+      </c>
+      <c r="B36">
+        <v>599</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C37</f>
+        <v>1402020076</v>
+      </c>
+      <c r="B37">
+        <v>454</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C38</f>
+        <v>1402020115</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1402020115</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C39</f>
+        <v>1402018185</v>
+      </c>
+      <c r="B39">
+        <v>616</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C40</f>
+        <v>1402019021</v>
+      </c>
+      <c r="B40">
+        <v>487</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C41</f>
+        <v>1402020026</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1402020026</v>
+      </c>
+      <c r="D41" t="str">
+        <v>stu91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C42</f>
+        <v>1402019074</v>
+      </c>
+      <c r="B42">
+        <v>462</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C43</f>
+        <v>1402020029</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1402020029</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C44</f>
+        <v>1402020025</v>
+      </c>
+      <c r="B44">
+        <v>474</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C45</f>
+        <v>1402019040</v>
+      </c>
+      <c r="B45">
+        <v>585</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C46</f>
+        <v>1402020021</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1402020021</v>
+      </c>
+      <c r="D46" t="str">
+        <v>stu93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C47</f>
+        <v>1402019036</v>
+      </c>
+      <c r="B47">
+        <v>587</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C48</f>
+        <v>1402019028</v>
+      </c>
+      <c r="B48">
+        <v>594</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C49</f>
+        <v>1402018076</v>
+      </c>
+      <c r="B49">
+        <v>611</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>611</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C50</f>
+        <v>1402020027</v>
+      </c>
+      <c r="B50">
+        <v>448</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C51</f>
+        <v>1402020135</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1402020135</v>
+      </c>
+      <c r="D51" t="str">
+        <v>stu87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C52</f>
+        <v>1402020124</v>
+      </c>
+      <c r="B52">
+        <v>473</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>473</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C53</f>
+        <v>1402020074</v>
+      </c>
+      <c r="B53">
+        <v>461</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C54</f>
+        <v>1402020030</v>
+      </c>
+      <c r="B54">
+        <v>451</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C55</f>
+        <v>1402020054</v>
+      </c>
+      <c r="B55">
+        <v>477</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>477</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C56</f>
+        <v>1402020073</v>
+      </c>
+      <c r="B56">
+        <v>581</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>581</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C57</f>
+        <v>1402020033</v>
+      </c>
+      <c r="B57">
+        <v>455</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C58</f>
+        <v>1402020008</v>
+      </c>
+      <c r="B58">
+        <v>569</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C59</f>
+        <v>1402020034</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1402020034</v>
+      </c>
+      <c r="D59" t="str">
+        <v>stu99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C60</f>
+        <v>1402020133</v>
+      </c>
+      <c r="B60">
+        <v>572</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C61</f>
+        <v>1402020114</v>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1402020114</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C62</f>
+        <v>1402019071</v>
+      </c>
+      <c r="B62">
+        <v>588</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C63</f>
+        <v>1402020061</v>
+      </c>
+      <c r="B63" t="str">
+        <v/>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1402020061</v>
+      </c>
+      <c r="D63" t="str">
+        <v>stu71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C64</f>
+        <v>1402020107</v>
+      </c>
+      <c r="B64">
+        <v>458</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C65</f>
+        <v>1402020088</v>
+      </c>
+      <c r="B65">
+        <v>450</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C66</f>
+        <v>1402020063</v>
+      </c>
+      <c r="B66" t="str">
+        <v/>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1402020063</v>
+      </c>
+      <c r="D66" t="str">
+        <v>stu78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C67</f>
+        <v>1402020128</v>
+      </c>
+      <c r="B67">
+        <v>488</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C80" si="1">IF(B67="",A67,B67)</f>
+        <v>488</v>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C68</f>
+        <v>1402020089</v>
+      </c>
+      <c r="B68">
+        <v>453</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C69</f>
+        <v>1402020080</v>
+      </c>
+      <c r="B69">
+        <v>563</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>563</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C70</f>
+        <v>1402020081</v>
+      </c>
+      <c r="B70">
+        <v>464</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="D70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C71</f>
+        <v>1402020019</v>
+      </c>
+      <c r="B71">
+        <v>468</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="D71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C72</f>
+        <v>1402020066</v>
+      </c>
+      <c r="B72">
+        <v>496</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="D72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C73</f>
+        <v>1402020083</v>
+      </c>
+      <c r="B73">
+        <v>568</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="D73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C74</f>
+        <v>1402019024</v>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>1402019024</v>
+      </c>
+      <c r="D74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C75</f>
+        <v>1402020062</v>
+      </c>
+      <c r="B75">
+        <v>567</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>567</v>
+      </c>
+      <c r="D75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C76</f>
+        <v>1402020067</v>
+      </c>
+      <c r="B76">
+        <v>480</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="D76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C77</f>
+        <v>1402020098</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>1402020098</v>
+      </c>
+      <c r="D77" t="str">
+        <v>stu82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C78</f>
+        <v>1402020116</v>
+      </c>
+      <c r="B78">
+        <v>566</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C79</f>
+        <v>1402020087</v>
+      </c>
+      <c r="B79">
+        <v>465</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="D79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <f>'BEFORE_Indonesian Self-Efficacy'!C80</f>
+        <v>1402019008</v>
+      </c>
+      <c r="B80">
+        <v>610</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A80">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B80">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12092,7 +14509,7 @@
         <v>7</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(D2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">AVERAGE(D2:K2)</f>
         <v>7</v>
       </c>
     </row>
@@ -12131,7 +14548,7 @@
         <v>7</v>
       </c>
       <c r="L3">
-        <f>AVERAGE(D3:K3)</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
@@ -12170,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(D4:K4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -12209,7 +14626,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(D5:K5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -12248,7 +14665,7 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(D6:K6)</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
     </row>
@@ -12287,7 +14704,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(D7:K7)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
@@ -12326,7 +14743,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <f>AVERAGE(D8:K8)</f>
+        <f t="shared" si="0"/>
         <v>4.625</v>
       </c>
     </row>
@@ -12365,7 +14782,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <f>AVERAGE(D9:K9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -12404,7 +14821,7 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(D10:K10)</f>
+        <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
     </row>
@@ -12443,7 +14860,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(D11:K11)</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
     </row>
@@ -12482,7 +14899,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(D12:K12)</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
     </row>
@@ -12521,7 +14938,7 @@
         <v>6</v>
       </c>
       <c r="L13">
-        <f>AVERAGE(D13:K13)</f>
+        <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
     </row>
@@ -12560,7 +14977,7 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f>AVERAGE(D14:K14)</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
     </row>
@@ -12599,7 +15016,7 @@
         <v>7</v>
       </c>
       <c r="L15">
-        <f>AVERAGE(D15:K15)</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
     </row>
@@ -12638,7 +15055,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <f>AVERAGE(D16:K16)</f>
+        <f t="shared" si="0"/>
         <v>4.625</v>
       </c>
     </row>
@@ -12677,7 +15094,7 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <f>AVERAGE(D17:K17)</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
     </row>
@@ -12716,7 +15133,7 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(D18:K18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -12755,7 +15172,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(D19:K19)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -12794,7 +15211,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <f>AVERAGE(D20:K20)</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
     </row>
@@ -12833,7 +15250,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <f>AVERAGE(D21:K21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -12872,7 +15289,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <f>AVERAGE(D22:K22)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
@@ -12911,7 +15328,7 @@
         <v>7</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(D23:K23)</f>
+        <f t="shared" si="0"/>
         <v>6.625</v>
       </c>
     </row>
@@ -12950,7 +15367,7 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <f>AVERAGE(D24:K24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -12989,7 +15406,7 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <f>AVERAGE(D25:K25)</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
     </row>
@@ -13028,7 +15445,7 @@
         <v>7</v>
       </c>
       <c r="L26">
-        <f>AVERAGE(D26:K26)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
@@ -13067,7 +15484,7 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <f>AVERAGE(D27:K27)</f>
+        <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
     </row>
@@ -13106,7 +15523,7 @@
         <v>5</v>
       </c>
       <c r="L28">
-        <f>AVERAGE(D28:K28)</f>
+        <f t="shared" si="0"/>
         <v>4.875</v>
       </c>
     </row>
@@ -13145,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(D29:K29)</f>
+        <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
     </row>
@@ -13184,7 +15601,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <f>AVERAGE(D30:K30)</f>
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
     </row>
@@ -13223,7 +15640,7 @@
         <v>5</v>
       </c>
       <c r="L31">
-        <f>AVERAGE(D31:K31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -13262,7 +15679,7 @@
         <v>4</v>
       </c>
       <c r="L32">
-        <f>AVERAGE(D32:K32)</f>
+        <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
     </row>
@@ -13301,7 +15718,7 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <f>AVERAGE(D33:K33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -13340,7 +15757,7 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <f>AVERAGE(D34:K34)</f>
+        <f t="shared" ref="L34:L65" si="1">AVERAGE(D34:K34)</f>
         <v>4</v>
       </c>
     </row>
@@ -13379,7 +15796,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <f>AVERAGE(D35:K35)</f>
+        <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
     </row>
@@ -13418,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <f>AVERAGE(D36:K36)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13457,7 +15874,7 @@
         <v>3</v>
       </c>
       <c r="L37">
-        <f>AVERAGE(D37:K37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13496,7 +15913,7 @@
         <v>3</v>
       </c>
       <c r="L38">
-        <f>AVERAGE(D38:K38)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13535,7 +15952,7 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <f>AVERAGE(D39:K39)</f>
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
     </row>
@@ -13574,7 +15991,7 @@
         <v>6</v>
       </c>
       <c r="L40">
-        <f>AVERAGE(D40:K40)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -13613,7 +16030,7 @@
         <v>3</v>
       </c>
       <c r="L41">
-        <f>AVERAGE(D41:K41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13652,7 +16069,7 @@
         <v>4</v>
       </c>
       <c r="L42">
-        <f>AVERAGE(D42:K42)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13691,7 +16108,7 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <f>AVERAGE(D43:K43)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13730,7 +16147,7 @@
         <v>5</v>
       </c>
       <c r="L44">
-        <f>AVERAGE(D44:K44)</f>
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
     </row>
@@ -13769,7 +16186,7 @@
         <v>5</v>
       </c>
       <c r="L45">
-        <f>AVERAGE(D45:K45)</f>
+        <f t="shared" si="1"/>
         <v>4.625</v>
       </c>
     </row>
@@ -13808,7 +16225,7 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <f>AVERAGE(D46:K46)</f>
+        <f t="shared" si="1"/>
         <v>4.125</v>
       </c>
     </row>
@@ -13847,7 +16264,7 @@
         <v>7</v>
       </c>
       <c r="L47">
-        <f>AVERAGE(D47:K47)</f>
+        <f t="shared" si="1"/>
         <v>5.625</v>
       </c>
     </row>
@@ -13886,7 +16303,7 @@
         <v>4</v>
       </c>
       <c r="L48">
-        <f>AVERAGE(D48:K48)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13925,7 +16342,7 @@
         <v>6</v>
       </c>
       <c r="L49">
-        <f>AVERAGE(D49:K49)</f>
+        <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
     </row>
@@ -13964,7 +16381,7 @@
         <v>5</v>
       </c>
       <c r="L50">
-        <f>AVERAGE(D50:K50)</f>
+        <f t="shared" si="1"/>
         <v>4.875</v>
       </c>
     </row>
@@ -14003,7 +16420,7 @@
         <v>6</v>
       </c>
       <c r="L51">
-        <f>AVERAGE(D51:K51)</f>
+        <f t="shared" si="1"/>
         <v>5.375</v>
       </c>
     </row>
@@ -14042,7 +16459,7 @@
         <v>7</v>
       </c>
       <c r="L52">
-        <f>AVERAGE(D52:K52)</f>
+        <f t="shared" si="1"/>
         <v>6.125</v>
       </c>
     </row>
@@ -14081,7 +16498,7 @@
         <v>4</v>
       </c>
       <c r="L53">
-        <f>AVERAGE(D53:K53)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -14120,7 +16537,7 @@
         <v>3</v>
       </c>
       <c r="L54">
-        <f>AVERAGE(D54:K54)</f>
+        <f t="shared" si="1"/>
         <v>2.625</v>
       </c>
     </row>
@@ -14159,7 +16576,7 @@
         <v>5</v>
       </c>
       <c r="L55">
-        <f>AVERAGE(D55:K55)</f>
+        <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
     </row>
@@ -14198,7 +16615,7 @@
         <v>7</v>
       </c>
       <c r="L56">
-        <f>AVERAGE(D56:K56)</f>
+        <f t="shared" si="1"/>
         <v>6.375</v>
       </c>
     </row>
@@ -14237,7 +16654,7 @@
         <v>5</v>
       </c>
       <c r="L57">
-        <f>AVERAGE(D57:K57)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -14276,7 +16693,7 @@
         <v>4</v>
       </c>
       <c r="L58">
-        <f>AVERAGE(D58:K58)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -14315,7 +16732,7 @@
         <v>5</v>
       </c>
       <c r="L59">
-        <f>AVERAGE(D59:K59)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -14354,7 +16771,7 @@
         <v>6</v>
       </c>
       <c r="L60">
-        <f>AVERAGE(D60:K60)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -14393,7 +16810,7 @@
         <v>4</v>
       </c>
       <c r="L61">
-        <f>AVERAGE(D61:K61)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -14432,7 +16849,7 @@
         <v>3</v>
       </c>
       <c r="L62">
-        <f>AVERAGE(D62:K62)</f>
+        <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
     </row>
@@ -14471,7 +16888,7 @@
         <v>6</v>
       </c>
       <c r="L63">
-        <f>AVERAGE(D63:K63)</f>
+        <f t="shared" si="1"/>
         <v>5.375</v>
       </c>
     </row>
@@ -14510,7 +16927,7 @@
         <v>3</v>
       </c>
       <c r="L64">
-        <f>AVERAGE(D64:K64)</f>
+        <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
     </row>
@@ -14549,7 +16966,7 @@
         <v>5</v>
       </c>
       <c r="L65">
-        <f>AVERAGE(D65:K65)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
     </row>
@@ -14588,18 +17005,18 @@
         <v>4</v>
       </c>
       <c r="L66">
-        <f>AVERAGE(D66:K66)</f>
+        <f t="shared" ref="L66" si="2">AVERAGE(D66:K66)</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L66">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:C66">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
